--- a/src/main/webapp/template/计时工资批量导入.xlsx
+++ b/src/main/webapp/template/计时工资批量导入.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>月份</t>
   </si>
@@ -34,6 +34,9 @@
     <t>数量</t>
   </si>
   <si>
+    <t>单位</t>
+  </si>
+  <si>
     <t>金额</t>
   </si>
   <si>
@@ -45,12 +48,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,10 +74,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF333333"/>
-      <name val="PingFang-SC-Regular"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -84,9 +88,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,134 +224,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,13 +240,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,163 +378,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,35 +425,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,17 +458,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,8 +470,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,174 +490,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,62 +1007,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
+    <col min="1" max="1" width="12.5454545454545" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.4242424242424" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.4242424242424" customWidth="1"/>
-    <col min="16" max="16" width="14.2878787878788" customWidth="1"/>
-    <col min="17" max="17" width="24.7272727272727" style="3" customWidth="1"/>
-    <col min="19" max="19" width="19.7272727272727" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.5454545454545"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:23">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
